--- a/artfynd/A 258-2026 artfynd.xlsx
+++ b/artfynd/A 258-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130610008</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>130604188</v>
       </c>
       <c r="B3" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>130609986</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>130604224</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>130609984</v>
       </c>
       <c r="B6" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>130604048</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/artfynd/A 258-2026 artfynd.xlsx
+++ b/artfynd/A 258-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130604188</v>
+        <v>130611551</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,33 +803,57 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Västansjö, Västansjö, Vb</t>
+          <t>Västansjö, Vb</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>745626</v>
+        <v>745582</v>
       </c>
       <c r="R3" t="n">
-        <v>7101693</v>
+        <v>7101809</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -853,22 +877,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>En individ födosökte på gran</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -895,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130609986</v>
+        <v>130604188</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -906,34 +935,30 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Västansjö, Vb</t>
+          <t>Västansjö, Västansjö, Vb</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>745431</v>
+        <v>745626</v>
       </c>
       <c r="R4" t="n">
-        <v>7101733</v>
+        <v>7101693</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -965,7 +990,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:47</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -975,12 +1000,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:47</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>äldre ringhack</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1007,7 +1027,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130604224</v>
+        <v>130609986</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1036,21 +1056,16 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Västansjö, Västansjö, Vb</t>
+          <t>Västansjö, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>745576</v>
+        <v>745431</v>
       </c>
       <c r="R5" t="n">
-        <v>7101686</v>
+        <v>7101733</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1082,7 +1097,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:47</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1092,7 +1107,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:47</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>äldre ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1119,10 +1139,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130609984</v>
+        <v>130604224</v>
       </c>
       <c r="B6" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1130,34 +1150,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Västansjö, Vb</t>
+          <t>Västansjö, Västansjö, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>745512</v>
+        <v>745576</v>
       </c>
       <c r="R6" t="n">
-        <v>7101717</v>
+        <v>7101686</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1189,7 +1214,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1199,12 +1224,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:51</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Läte</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1231,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130604048</v>
+        <v>130609984</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1242,39 +1262,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Västansjö, Västansjö, Vb</t>
+          <t>Västansjö, Vb</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>745605</v>
+        <v>745512</v>
       </c>
       <c r="R7" t="n">
-        <v>7101733</v>
+        <v>7101717</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1306,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1316,7 +1331,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>11:51</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Läte</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1340,6 +1360,118 @@
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>130604048</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Västansjö, Västansjö, Vb</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>745605</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7101733</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>10:11</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>10:11</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Alva Danielsson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Alva Danielsson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
